--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.101920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.101920.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2999,12 +2999,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4091,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4437,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4479,12 +4479,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5109,12 +5109,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5361,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5529,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5697,12 +5697,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5739,12 +5739,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6999,12 +6999,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7927,12 +7927,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8305,12 +8305,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8389,12 +8389,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9149,12 +9149,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9191,12 +9191,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9657,12 +9657,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12129,12 +12129,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12297,12 +12297,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12507,12 +12507,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12633,12 +12633,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12805,12 +12805,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12973,12 +12973,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13015,12 +13015,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13981,12 +13981,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14149,12 +14149,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14859,12 +14859,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15659,12 +15659,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15819,12 +15819,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15899,12 +15899,12 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15939,12 +15939,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16341,12 +16341,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16659,12 +16659,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16819,12 +16819,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16979,12 +16979,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17503,12 +17503,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17743,12 +17743,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17863,12 +17863,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17943,12 +17943,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18103,12 +18103,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18343,12 +18343,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18463,12 +18463,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18823,12 +18823,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
